--- a/How many cat.xlsx
+++ b/How many cat.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93d6c8e5ec5bbee1/デスクトップ/master1/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_AD4D066CA252ABDACC1048A07151E1C472EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35435217-06E3-452F-BF4A-1B27F768ADD3}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,46 +18,14 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>neko</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cat</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tamamocat</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>taiga</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ketuarukoatoru</t>
-    <phoneticPr fontId="1"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -91,7 +53,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -368,42 +330,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>